--- a/python-in-excel-sample-rows-demo.xlsx
+++ b/python-in-excel-sample-rows-demo.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E497AEB4-07F2-43ED-98A1-1B4498B85FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9BF3E-A399-4D5F-AA1B-D02E93E9969F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{3258CA92-D2A9-44C6-8A51-65CF1C372E08}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_orders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -119,7 +132,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -149,6 +162,9 @@
     </pythonScript>
     <pythonScript>
       <code>orders_df.tail()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>orders_df.sample()</code>
     </pythonScript>
     <pythonScript>
       <code>orders_df.sample(n=200, random_state=1234, replace=True)</code>
@@ -1335,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FBE0A0-4FDF-42E3-B883-38E57E8FA378}">
-  <dimension ref="A1:L252"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
@@ -2952,7 +2968,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G52" t="str" cm="1">
-        <f t="array" ref="G52:L252">_xlfn._xlws.PY(5,0)</f>
+        <f t="array" ref="G52:L53">_xlfn._xlws.PY(5,0)</f>
         <v/>
       </c>
       <c r="H52" t="str">
@@ -2973,10 +2989,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G53">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H53" t="str">
-        <v>ORD011</v>
+        <v>ORD029</v>
       </c>
       <c r="I53" t="str">
         <v>Regular</v>
@@ -2985,81 +3001,62 @@
         <v>Clothing</v>
       </c>
       <c r="K53">
-        <v>145.46</v>
-      </c>
-      <c r="L53" vm="7">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G54">
-        <v>19</v>
-      </c>
-      <c r="H54" t="str">
-        <v>ORD047</v>
-      </c>
-      <c r="I54" t="str">
-        <v>Regular</v>
-      </c>
-      <c r="J54" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="K54">
-        <v>6.41</v>
-      </c>
-      <c r="L54" vm="3">
-        <v>45719</v>
+        <v>6.41</v>
+      </c>
+      <c r="L53" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="G55">
-        <v>38</v>
+      <c r="G55" t="str" cm="1">
+        <f t="array" ref="G55:L255">_xlfn._xlws.PY(6,0)</f>
+        <v/>
       </c>
       <c r="H55" t="str">
-        <v>ORD025</v>
+        <v>order_id</v>
       </c>
       <c r="I55" t="str">
-        <v>Regular</v>
+        <v>customer_type</v>
       </c>
       <c r="J55" t="str">
-        <v>Home</v>
-      </c>
-      <c r="K55">
-        <v>145.46</v>
-      </c>
-      <c r="L55" vm="5">
-        <v>45721</v>
+        <v>product_category</v>
+      </c>
+      <c r="K55" t="str">
+        <v>order_amount</v>
+      </c>
+      <c r="L55" t="str">
+        <v>order_date</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G56">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="H56" t="str">
-        <v>ORD045</v>
+        <v>ORD011</v>
       </c>
       <c r="I56" t="str">
         <v>Regular</v>
       </c>
       <c r="J56" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K56">
         <v>145.46</v>
       </c>
-      <c r="L56" vm="2">
-        <v>45718</v>
+      <c r="L56" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G57">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H57" t="str">
-        <v>ORD046</v>
+        <v>ORD047</v>
       </c>
       <c r="I57" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J57" t="str">
         <v>Clothing</v>
@@ -3067,59 +3064,59 @@
       <c r="K57">
         <v>6.41</v>
       </c>
-      <c r="L57" vm="4">
-        <v>45720</v>
+      <c r="L57" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G58">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H58" t="str">
-        <v>ORD023</v>
+        <v>ORD025</v>
       </c>
       <c r="I58" t="str">
         <v>Regular</v>
       </c>
       <c r="J58" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K58">
-        <v>6.41</v>
-      </c>
-      <c r="L58" vm="2">
-        <v>45718</v>
+        <v>145.46</v>
+      </c>
+      <c r="L58" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G59">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H59" t="str">
-        <v>ORD034</v>
+        <v>ORD045</v>
       </c>
       <c r="I59" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J59" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K59">
         <v>145.46</v>
       </c>
-      <c r="L59" vm="7">
-        <v>45723</v>
+      <c r="L59" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G60">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H60" t="str">
-        <v>ORD029</v>
+        <v>ORD046</v>
       </c>
       <c r="I60" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J60" t="str">
         <v>Clothing</v>
@@ -3133,70 +3130,70 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G61">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H61" t="str">
-        <v>ORD032</v>
+        <v>ORD023</v>
       </c>
       <c r="I61" t="str">
         <v>Regular</v>
       </c>
       <c r="J61" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K61">
-        <v>608.66</v>
-      </c>
-      <c r="L61" vm="6">
-        <v>45722</v>
+        <v>6.41</v>
+      </c>
+      <c r="L61" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G62">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H62" t="str">
-        <v>ORD037</v>
+        <v>ORD034</v>
       </c>
       <c r="I62" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J62" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K62">
-        <v>608.66</v>
-      </c>
-      <c r="L62" vm="4">
-        <v>45720</v>
+        <v>145.46</v>
+      </c>
+      <c r="L62" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G63">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H63" t="str">
-        <v>ORD038</v>
+        <v>ORD029</v>
       </c>
       <c r="I63" t="str">
         <v>Regular</v>
       </c>
       <c r="J63" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K63">
-        <v>608.66</v>
-      </c>
-      <c r="L63" vm="5">
-        <v>45721</v>
+        <v>6.41</v>
+      </c>
+      <c r="L63" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.7">
       <c r="G64">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H64" t="str">
-        <v>ORD027</v>
+        <v>ORD032</v>
       </c>
       <c r="I64" t="str">
         <v>Regular</v>
@@ -3205,7 +3202,7 @@
         <v>Home</v>
       </c>
       <c r="K64">
-        <v>145.46</v>
+        <v>608.66</v>
       </c>
       <c r="L64" vm="6">
         <v>45722</v>
@@ -3213,10 +3210,10 @@
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G65">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H65" t="str">
-        <v>ORD038</v>
+        <v>ORD037</v>
       </c>
       <c r="I65" t="str">
         <v>Regular</v>
@@ -3227,36 +3224,36 @@
       <c r="K65">
         <v>608.66</v>
       </c>
-      <c r="L65" vm="5">
-        <v>45721</v>
+      <c r="L65" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G66">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H66" t="str">
-        <v>ORD003</v>
+        <v>ORD038</v>
       </c>
       <c r="I66" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J66" t="str">
-        <v>Books</v>
+        <v>Home</v>
       </c>
       <c r="K66">
-        <v>6.41</v>
-      </c>
-      <c r="L66" vm="6">
-        <v>45722</v>
+        <v>608.66</v>
+      </c>
+      <c r="L66" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G67">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H67" t="str">
-        <v>ORD037</v>
+        <v>ORD027</v>
       </c>
       <c r="I67" t="str">
         <v>Regular</v>
@@ -3265,41 +3262,41 @@
         <v>Home</v>
       </c>
       <c r="K67">
-        <v>608.66</v>
-      </c>
-      <c r="L67" vm="4">
-        <v>45720</v>
+        <v>145.46</v>
+      </c>
+      <c r="L67" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G68">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H68" t="str">
-        <v>ORD022</v>
+        <v>ORD038</v>
       </c>
       <c r="I68" t="str">
         <v>Regular</v>
       </c>
       <c r="J68" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K68">
-        <v>6.41</v>
-      </c>
-      <c r="L68" vm="7">
-        <v>45723</v>
+        <v>608.66</v>
+      </c>
+      <c r="L68" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G69">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H69" t="str">
-        <v>ORD020</v>
+        <v>ORD003</v>
       </c>
       <c r="I69" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J69" t="str">
         <v>Books</v>
@@ -3307,56 +3304,56 @@
       <c r="K69">
         <v>6.41</v>
       </c>
-      <c r="L69" vm="4">
-        <v>45720</v>
+      <c r="L69" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="70" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G70">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H70" t="str">
-        <v>ORD028</v>
+        <v>ORD037</v>
       </c>
       <c r="I70" t="str">
         <v>Regular</v>
       </c>
       <c r="J70" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K70">
-        <v>6.41</v>
-      </c>
-      <c r="L70" vm="1">
-        <v>45717</v>
+        <v>608.66</v>
+      </c>
+      <c r="L70" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="71" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G71">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H71" t="str">
-        <v>ORD040</v>
+        <v>ORD022</v>
       </c>
       <c r="I71" t="str">
         <v>Regular</v>
       </c>
       <c r="J71" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K71">
         <v>6.41</v>
       </c>
-      <c r="L71" vm="2">
-        <v>45718</v>
+      <c r="L71" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G72">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H72" t="str">
-        <v>ORD006</v>
+        <v>ORD020</v>
       </c>
       <c r="I72" t="str">
         <v>Regular</v>
@@ -3367,65 +3364,65 @@
       <c r="K72">
         <v>6.41</v>
       </c>
-      <c r="L72" vm="2">
-        <v>45718</v>
+      <c r="L72" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="73" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G73">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H73" t="str">
-        <v>ORD011</v>
+        <v>ORD028</v>
       </c>
       <c r="I73" t="str">
         <v>Regular</v>
       </c>
       <c r="J73" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K73">
-        <v>145.46</v>
-      </c>
-      <c r="L73" vm="7">
-        <v>45723</v>
+        <v>6.41</v>
+      </c>
+      <c r="L73" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G74">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H74" t="str">
-        <v>ORD022</v>
+        <v>ORD040</v>
       </c>
       <c r="I74" t="str">
         <v>Regular</v>
       </c>
       <c r="J74" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K74">
         <v>6.41</v>
       </c>
-      <c r="L74" vm="7">
-        <v>45723</v>
+      <c r="L74" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G75">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H75" t="str">
-        <v>ORD045</v>
+        <v>ORD006</v>
       </c>
       <c r="I75" t="str">
         <v>Regular</v>
       </c>
       <c r="J75" t="str">
-        <v>Home</v>
+        <v>Books</v>
       </c>
       <c r="K75">
-        <v>145.46</v>
+        <v>6.41</v>
       </c>
       <c r="L75" vm="2">
         <v>45718</v>
@@ -3433,50 +3430,50 @@
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G76">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H76" t="str">
-        <v>ORD007</v>
+        <v>ORD011</v>
       </c>
       <c r="I76" t="str">
         <v>Regular</v>
       </c>
       <c r="J76" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K76">
-        <v>6.41</v>
-      </c>
-      <c r="L76" vm="5">
-        <v>45721</v>
+        <v>145.46</v>
+      </c>
+      <c r="L76" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G77">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H77" t="str">
-        <v>ORD033</v>
+        <v>ORD022</v>
       </c>
       <c r="I77" t="str">
         <v>Regular</v>
       </c>
       <c r="J77" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K77">
         <v>6.41</v>
       </c>
-      <c r="L77" vm="5">
-        <v>45721</v>
+      <c r="L77" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G78">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H78" t="str">
-        <v>ORD025</v>
+        <v>ORD045</v>
       </c>
       <c r="I78" t="str">
         <v>Regular</v>
@@ -3487,36 +3484,36 @@
       <c r="K78">
         <v>145.46</v>
       </c>
-      <c r="L78" vm="5">
-        <v>45721</v>
+      <c r="L78" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="79" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G79">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H79" t="str">
-        <v>ORD016</v>
+        <v>ORD007</v>
       </c>
       <c r="I79" t="str">
         <v>Regular</v>
       </c>
       <c r="J79" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K79">
-        <v>145.46</v>
-      </c>
-      <c r="L79" vm="1">
-        <v>45717</v>
+        <v>6.41</v>
+      </c>
+      <c r="L79" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="80" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G80">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H80" t="str">
-        <v>ORD014</v>
+        <v>ORD033</v>
       </c>
       <c r="I80" t="str">
         <v>Regular</v>
@@ -3525,7 +3522,7 @@
         <v>Clothing</v>
       </c>
       <c r="K80">
-        <v>145.46</v>
+        <v>6.41</v>
       </c>
       <c r="L80" vm="5">
         <v>45721</v>
@@ -3533,39 +3530,39 @@
     </row>
     <row r="81" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G81">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H81" t="str">
-        <v>ORD021</v>
+        <v>ORD025</v>
       </c>
       <c r="I81" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J81" t="str">
         <v>Home</v>
       </c>
       <c r="K81">
-        <v>6.41</v>
-      </c>
-      <c r="L81" vm="2">
-        <v>45718</v>
+        <v>145.46</v>
+      </c>
+      <c r="L81" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="82" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H82" t="str">
-        <v>ORD031</v>
+        <v>ORD016</v>
       </c>
       <c r="I82" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J82" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K82">
-        <v>6.41</v>
+        <v>145.46</v>
       </c>
       <c r="L82" vm="1">
         <v>45717</v>
@@ -3573,22 +3570,22 @@
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G83">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H83" t="str">
-        <v>ORD032</v>
+        <v>ORD014</v>
       </c>
       <c r="I83" t="str">
         <v>Regular</v>
       </c>
       <c r="J83" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K83">
-        <v>608.66</v>
-      </c>
-      <c r="L83" vm="6">
-        <v>45722</v>
+        <v>145.46</v>
+      </c>
+      <c r="L83" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.7">
@@ -3613,70 +3610,70 @@
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G85">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H85" t="str">
-        <v>ORD040</v>
+        <v>ORD031</v>
       </c>
       <c r="I85" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J85" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K85">
         <v>6.41</v>
       </c>
-      <c r="L85" vm="2">
-        <v>45718</v>
+      <c r="L85" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="86" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G86">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="H86" t="str">
-        <v>ORD016</v>
+        <v>ORD032</v>
       </c>
       <c r="I86" t="str">
         <v>Regular</v>
       </c>
       <c r="J86" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K86">
-        <v>145.46</v>
-      </c>
-      <c r="L86" vm="1">
-        <v>45717</v>
+        <v>608.66</v>
+      </c>
+      <c r="L86" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G87">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H87" t="str">
-        <v>ORD013</v>
+        <v>ORD021</v>
       </c>
       <c r="I87" t="str">
-        <v>New</v>
+        <v>VIP</v>
       </c>
       <c r="J87" t="str">
-        <v>Books</v>
+        <v>Home</v>
       </c>
       <c r="K87">
-        <v>145.46</v>
-      </c>
-      <c r="L87" vm="1">
-        <v>45717</v>
+        <v>6.41</v>
+      </c>
+      <c r="L87" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G88">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H88" t="str">
-        <v>ORD047</v>
+        <v>ORD040</v>
       </c>
       <c r="I88" t="str">
         <v>Regular</v>
@@ -3687,42 +3684,42 @@
       <c r="K88">
         <v>6.41</v>
       </c>
-      <c r="L88" vm="3">
-        <v>45719</v>
+      <c r="L88" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G89">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H89" t="str">
-        <v>ORD045</v>
+        <v>ORD016</v>
       </c>
       <c r="I89" t="str">
         <v>Regular</v>
       </c>
       <c r="J89" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K89">
         <v>145.46</v>
       </c>
-      <c r="L89" vm="2">
-        <v>45718</v>
+      <c r="L89" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="str">
-        <v>ORD017</v>
+        <v>ORD013</v>
       </c>
       <c r="I90" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J90" t="str">
-        <v>Electronics</v>
+        <v>Books</v>
       </c>
       <c r="K90">
         <v>145.46</v>
@@ -3733,30 +3730,30 @@
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G91">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H91" t="str">
-        <v>ORD021</v>
+        <v>ORD047</v>
       </c>
       <c r="I91" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J91" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K91">
         <v>6.41</v>
       </c>
-      <c r="L91" vm="2">
-        <v>45718</v>
+      <c r="L91" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G92">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H92" t="str">
-        <v>ORD027</v>
+        <v>ORD045</v>
       </c>
       <c r="I92" t="str">
         <v>Regular</v>
@@ -3767,45 +3764,45 @@
       <c r="K92">
         <v>145.46</v>
       </c>
-      <c r="L92" vm="6">
-        <v>45722</v>
+      <c r="L92" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G93">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H93" t="str">
-        <v>ORD036</v>
+        <v>ORD017</v>
       </c>
       <c r="I93" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J93" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K93">
-        <v>6.41</v>
-      </c>
-      <c r="L93" vm="2">
-        <v>45718</v>
+        <v>145.46</v>
+      </c>
+      <c r="L93" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="94" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G94">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H94" t="str">
-        <v>ORD019</v>
+        <v>ORD021</v>
       </c>
       <c r="I94" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J94" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K94">
-        <v>145.46</v>
+        <v>6.41</v>
       </c>
       <c r="L94" vm="2">
         <v>45718</v>
@@ -3813,150 +3810,150 @@
     </row>
     <row r="95" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G95">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H95" t="str">
-        <v>ORD010</v>
+        <v>ORD027</v>
       </c>
       <c r="I95" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J95" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K95">
-        <v>608.66</v>
-      </c>
-      <c r="L95" vm="2">
-        <v>45718</v>
+        <v>145.46</v>
+      </c>
+      <c r="L95" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="96" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G96">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H96" t="str">
-        <v>ORD041</v>
+        <v>ORD036</v>
       </c>
       <c r="I96" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J96" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K96">
         <v>6.41</v>
       </c>
-      <c r="L96" vm="6">
-        <v>45722</v>
+      <c r="L96" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="97" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G97">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H97" t="str">
-        <v>ORD027</v>
+        <v>ORD019</v>
       </c>
       <c r="I97" t="str">
         <v>Regular</v>
       </c>
       <c r="J97" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K97">
         <v>145.46</v>
       </c>
-      <c r="L97" vm="6">
-        <v>45722</v>
+      <c r="L97" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="98" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G98">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H98" t="str">
-        <v>ORD035</v>
+        <v>ORD010</v>
       </c>
       <c r="I98" t="str">
-        <v>New</v>
+        <v>VIP</v>
       </c>
       <c r="J98" t="str">
         <v>Clothing</v>
       </c>
       <c r="K98">
-        <v>145.46</v>
-      </c>
-      <c r="L98" vm="7">
-        <v>45723</v>
+        <v>608.66</v>
+      </c>
+      <c r="L98" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="99" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G99">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H99" t="str">
-        <v>ORD020</v>
+        <v>ORD041</v>
       </c>
       <c r="I99" t="str">
         <v>Regular</v>
       </c>
       <c r="J99" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K99">
         <v>6.41</v>
       </c>
-      <c r="L99" vm="4">
-        <v>45720</v>
+      <c r="L99" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="100" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G100">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H100" t="str">
-        <v>ORD036</v>
+        <v>ORD027</v>
       </c>
       <c r="I100" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J100" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K100">
-        <v>6.41</v>
-      </c>
-      <c r="L100" vm="2">
-        <v>45718</v>
+        <v>145.46</v>
+      </c>
+      <c r="L100" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="101" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G101">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H101" t="str">
-        <v>ORD029</v>
+        <v>ORD035</v>
       </c>
       <c r="I101" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J101" t="str">
         <v>Clothing</v>
       </c>
       <c r="K101">
-        <v>6.41</v>
-      </c>
-      <c r="L101" vm="4">
-        <v>45720</v>
+        <v>145.46</v>
+      </c>
+      <c r="L101" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="102" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G102">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H102" t="str">
-        <v>ORD001</v>
+        <v>ORD020</v>
       </c>
       <c r="I102" t="str">
         <v>Regular</v>
@@ -3965,98 +3962,98 @@
         <v>Books</v>
       </c>
       <c r="K102">
-        <v>145.46</v>
-      </c>
-      <c r="L102" vm="2">
-        <v>45718</v>
+        <v>6.41</v>
+      </c>
+      <c r="L102" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="103" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G103">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H103" t="str">
-        <v>ORD009</v>
+        <v>ORD036</v>
       </c>
       <c r="I103" t="str">
-        <v>VIP</v>
+        <v>New</v>
       </c>
       <c r="J103" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K103">
         <v>6.41</v>
       </c>
-      <c r="L103" vm="5">
-        <v>45721</v>
+      <c r="L103" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="104" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G104">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H104" t="str">
-        <v>ORD045</v>
+        <v>ORD029</v>
       </c>
       <c r="I104" t="str">
         <v>Regular</v>
       </c>
       <c r="J104" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K104">
-        <v>145.46</v>
-      </c>
-      <c r="L104" vm="2">
-        <v>45718</v>
+        <v>6.41</v>
+      </c>
+      <c r="L104" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="105" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G105">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H105" t="str">
-        <v>ORD028</v>
+        <v>ORD001</v>
       </c>
       <c r="I105" t="str">
         <v>Regular</v>
       </c>
       <c r="J105" t="str">
-        <v>Electronics</v>
+        <v>Books</v>
       </c>
       <c r="K105">
-        <v>6.41</v>
-      </c>
-      <c r="L105" vm="1">
-        <v>45717</v>
+        <v>145.46</v>
+      </c>
+      <c r="L105" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="106" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G106">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H106" t="str">
-        <v>ORD034</v>
+        <v>ORD009</v>
       </c>
       <c r="I106" t="str">
-        <v>New</v>
+        <v>VIP</v>
       </c>
       <c r="J106" t="str">
         <v>Electronics</v>
       </c>
       <c r="K106">
-        <v>145.46</v>
-      </c>
-      <c r="L106" vm="7">
-        <v>45723</v>
+        <v>6.41</v>
+      </c>
+      <c r="L106" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="107" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G107">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H107" t="str">
-        <v>ORD043</v>
+        <v>ORD045</v>
       </c>
       <c r="I107" t="str">
         <v>Regular</v>
@@ -4065,18 +4062,18 @@
         <v>Home</v>
       </c>
       <c r="K107">
-        <v>6.41</v>
-      </c>
-      <c r="L107" vm="5">
-        <v>45721</v>
+        <v>145.46</v>
+      </c>
+      <c r="L107" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="108" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G108">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H108" t="str">
-        <v>ORD007</v>
+        <v>ORD028</v>
       </c>
       <c r="I108" t="str">
         <v>Regular</v>
@@ -4087,208 +4084,208 @@
       <c r="K108">
         <v>6.41</v>
       </c>
-      <c r="L108" vm="5">
-        <v>45721</v>
+      <c r="L108" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="109" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G109">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H109" t="str">
-        <v>ORD043</v>
+        <v>ORD034</v>
       </c>
       <c r="I109" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J109" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K109">
-        <v>6.41</v>
-      </c>
-      <c r="L109" vm="5">
-        <v>45721</v>
+        <v>145.46</v>
+      </c>
+      <c r="L109" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="110" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G110">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H110" t="str">
-        <v>ORD030</v>
+        <v>ORD043</v>
       </c>
       <c r="I110" t="str">
         <v>Regular</v>
       </c>
       <c r="J110" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K110">
         <v>6.41</v>
       </c>
-      <c r="L110" vm="4">
-        <v>45720</v>
+      <c r="L110" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="111" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G111">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H111" t="str">
-        <v>ORD024</v>
+        <v>ORD007</v>
       </c>
       <c r="I111" t="str">
         <v>Regular</v>
       </c>
       <c r="J111" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K111">
-        <v>145.46</v>
-      </c>
-      <c r="L111" vm="3">
-        <v>45719</v>
+        <v>6.41</v>
+      </c>
+      <c r="L111" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="112" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G112">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H112" t="str">
-        <v>ORD050</v>
+        <v>ORD043</v>
       </c>
       <c r="I112" t="str">
         <v>Regular</v>
       </c>
       <c r="J112" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K112">
         <v>6.41</v>
       </c>
-      <c r="L112" vm="7">
-        <v>45723</v>
+      <c r="L112" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="113" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G113">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H113" t="str">
-        <v>ORD040</v>
+        <v>ORD030</v>
       </c>
       <c r="I113" t="str">
         <v>Regular</v>
       </c>
       <c r="J113" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K113">
         <v>6.41</v>
       </c>
-      <c r="L113" vm="2">
-        <v>45718</v>
+      <c r="L113" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="114" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G114">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H114" t="str">
-        <v>ORD032</v>
+        <v>ORD024</v>
       </c>
       <c r="I114" t="str">
         <v>Regular</v>
       </c>
       <c r="J114" t="str">
-        <v>Home</v>
+        <v>Books</v>
       </c>
       <c r="K114">
-        <v>608.66</v>
-      </c>
-      <c r="L114" vm="6">
-        <v>45722</v>
+        <v>145.46</v>
+      </c>
+      <c r="L114" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="115" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G115">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H115" t="str">
-        <v>ORD039</v>
+        <v>ORD050</v>
       </c>
       <c r="I115" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J115" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K115">
         <v>6.41</v>
       </c>
-      <c r="L115" vm="2">
-        <v>45718</v>
+      <c r="L115" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="116" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G116">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H116" t="str">
-        <v>ORD003</v>
+        <v>ORD040</v>
       </c>
       <c r="I116" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J116" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K116">
         <v>6.41</v>
       </c>
-      <c r="L116" vm="6">
-        <v>45722</v>
+      <c r="L116" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="117" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G117">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H117" t="str">
-        <v>ORD026</v>
+        <v>ORD032</v>
       </c>
       <c r="I117" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J117" t="str">
         <v>Home</v>
       </c>
       <c r="K117">
-        <v>6.41</v>
-      </c>
-      <c r="L117" vm="1">
-        <v>45717</v>
+        <v>608.66</v>
+      </c>
+      <c r="L117" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="118" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G118">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H118" t="str">
-        <v>ORD048</v>
+        <v>ORD039</v>
       </c>
       <c r="I118" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J118" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K118">
-        <v>608.66</v>
-      </c>
-      <c r="L118" vm="4">
-        <v>45720</v>
+        <v>6.41</v>
+      </c>
+      <c r="L118" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="119" spans="7:12" x14ac:dyDescent="0.7">
@@ -4313,30 +4310,30 @@
     </row>
     <row r="120" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G120">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H120" t="str">
-        <v>ORD037</v>
+        <v>ORD026</v>
       </c>
       <c r="I120" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J120" t="str">
         <v>Home</v>
       </c>
       <c r="K120">
-        <v>608.66</v>
-      </c>
-      <c r="L120" vm="4">
-        <v>45720</v>
+        <v>6.41</v>
+      </c>
+      <c r="L120" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="121" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G121">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H121" t="str">
-        <v>ORD047</v>
+        <v>ORD048</v>
       </c>
       <c r="I121" t="str">
         <v>Regular</v>
@@ -4345,58 +4342,58 @@
         <v>Clothing</v>
       </c>
       <c r="K121">
-        <v>6.41</v>
-      </c>
-      <c r="L121" vm="3">
-        <v>45719</v>
+        <v>608.66</v>
+      </c>
+      <c r="L121" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="122" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G122">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H122" t="str">
-        <v>ORD011</v>
+        <v>ORD003</v>
       </c>
       <c r="I122" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J122" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K122">
-        <v>145.46</v>
-      </c>
-      <c r="L122" vm="7">
-        <v>45723</v>
+        <v>6.41</v>
+      </c>
+      <c r="L122" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="123" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G123">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H123" t="str">
-        <v>ORD034</v>
+        <v>ORD037</v>
       </c>
       <c r="I123" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J123" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K123">
-        <v>145.46</v>
-      </c>
-      <c r="L123" vm="7">
-        <v>45723</v>
+        <v>608.66</v>
+      </c>
+      <c r="L123" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="124" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G124">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H124" t="str">
-        <v>ORD005</v>
+        <v>ORD047</v>
       </c>
       <c r="I124" t="str">
         <v>Regular</v>
@@ -4405,7 +4402,7 @@
         <v>Clothing</v>
       </c>
       <c r="K124">
-        <v>145.46</v>
+        <v>6.41</v>
       </c>
       <c r="L124" vm="3">
         <v>45719</v>
@@ -4413,36 +4410,36 @@
     </row>
     <row r="125" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G125">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H125" t="str">
-        <v>ORD002</v>
+        <v>ORD011</v>
       </c>
       <c r="I125" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J125" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K125">
-        <v>608.66</v>
-      </c>
-      <c r="L125" vm="3">
-        <v>45719</v>
+        <v>145.46</v>
+      </c>
+      <c r="L125" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="126" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G126">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H126" t="str">
-        <v>ORD035</v>
+        <v>ORD034</v>
       </c>
       <c r="I126" t="str">
         <v>New</v>
       </c>
       <c r="J126" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K126">
         <v>145.46</v>
@@ -4453,10 +4450,10 @@
     </row>
     <row r="127" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G127">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H127" t="str">
-        <v>ORD033</v>
+        <v>ORD005</v>
       </c>
       <c r="I127" t="str">
         <v>Regular</v>
@@ -4465,47 +4462,47 @@
         <v>Clothing</v>
       </c>
       <c r="K127">
-        <v>6.41</v>
-      </c>
-      <c r="L127" vm="5">
-        <v>45721</v>
+        <v>145.46</v>
+      </c>
+      <c r="L127" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="128" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G128">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H128" t="str">
-        <v>ORD007</v>
+        <v>ORD002</v>
       </c>
       <c r="I128" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J128" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K128">
-        <v>6.41</v>
-      </c>
-      <c r="L128" vm="5">
-        <v>45721</v>
+        <v>608.66</v>
+      </c>
+      <c r="L128" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="129" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G129">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H129" t="str">
-        <v>ORD050</v>
+        <v>ORD035</v>
       </c>
       <c r="I129" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J129" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K129">
-        <v>6.41</v>
+        <v>145.46</v>
       </c>
       <c r="L129" vm="7">
         <v>45723</v>
@@ -4513,19 +4510,19 @@
     </row>
     <row r="130" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G130">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H130" t="str">
-        <v>ORD025</v>
+        <v>ORD033</v>
       </c>
       <c r="I130" t="str">
         <v>Regular</v>
       </c>
       <c r="J130" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K130">
-        <v>145.46</v>
+        <v>6.41</v>
       </c>
       <c r="L130" vm="5">
         <v>45721</v>
@@ -4533,30 +4530,30 @@
     </row>
     <row r="131" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G131">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H131" t="str">
-        <v>ORD010</v>
+        <v>ORD007</v>
       </c>
       <c r="I131" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J131" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K131">
-        <v>608.66</v>
-      </c>
-      <c r="L131" vm="2">
-        <v>45718</v>
+        <v>6.41</v>
+      </c>
+      <c r="L131" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="132" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G132">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H132" t="str">
-        <v>ORD049</v>
+        <v>ORD050</v>
       </c>
       <c r="I132" t="str">
         <v>Regular</v>
@@ -4567,76 +4564,76 @@
       <c r="K132">
         <v>6.41</v>
       </c>
-      <c r="L132" vm="5">
-        <v>45721</v>
+      <c r="L132" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="133" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G133">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="H133" t="str">
-        <v>ORD016</v>
+        <v>ORD025</v>
       </c>
       <c r="I133" t="str">
         <v>Regular</v>
       </c>
       <c r="J133" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K133">
         <v>145.46</v>
       </c>
-      <c r="L133" vm="1">
-        <v>45717</v>
+      <c r="L133" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="134" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G134">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H134" t="str">
-        <v>ORD028</v>
+        <v>ORD010</v>
       </c>
       <c r="I134" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J134" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K134">
-        <v>6.41</v>
-      </c>
-      <c r="L134" vm="1">
-        <v>45717</v>
+        <v>608.66</v>
+      </c>
+      <c r="L134" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="135" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G135">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H135" t="str">
-        <v>ORD035</v>
+        <v>ORD049</v>
       </c>
       <c r="I135" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J135" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K135">
-        <v>145.46</v>
-      </c>
-      <c r="L135" vm="7">
-        <v>45723</v>
+        <v>6.41</v>
+      </c>
+      <c r="L135" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="136" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G136">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="H136" t="str">
-        <v>ORD011</v>
+        <v>ORD016</v>
       </c>
       <c r="I136" t="str">
         <v>Regular</v>
@@ -4647,56 +4644,56 @@
       <c r="K136">
         <v>145.46</v>
       </c>
-      <c r="L136" vm="7">
-        <v>45723</v>
+      <c r="L136" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="137" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G137">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H137" t="str">
-        <v>ORD011</v>
+        <v>ORD028</v>
       </c>
       <c r="I137" t="str">
         <v>Regular</v>
       </c>
       <c r="J137" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K137">
-        <v>145.46</v>
-      </c>
-      <c r="L137" vm="7">
-        <v>45723</v>
+        <v>6.41</v>
+      </c>
+      <c r="L137" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="138" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G138">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H138" t="str">
-        <v>ORD023</v>
+        <v>ORD035</v>
       </c>
       <c r="I138" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J138" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K138">
-        <v>6.41</v>
-      </c>
-      <c r="L138" vm="2">
-        <v>45718</v>
+        <v>145.46</v>
+      </c>
+      <c r="L138" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="139" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G139">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H139" t="str">
-        <v>ORD033</v>
+        <v>ORD011</v>
       </c>
       <c r="I139" t="str">
         <v>Regular</v>
@@ -4705,184 +4702,184 @@
         <v>Clothing</v>
       </c>
       <c r="K139">
-        <v>6.41</v>
-      </c>
-      <c r="L139" vm="5">
-        <v>45721</v>
+        <v>145.46</v>
+      </c>
+      <c r="L139" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="140" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G140">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H140" t="str">
-        <v>ORD012</v>
+        <v>ORD011</v>
       </c>
       <c r="I140" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J140" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K140">
         <v>145.46</v>
       </c>
-      <c r="L140" vm="2">
-        <v>45718</v>
+      <c r="L140" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="141" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G141">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H141" t="str">
-        <v>ORD020</v>
+        <v>ORD023</v>
       </c>
       <c r="I141" t="str">
         <v>Regular</v>
       </c>
       <c r="J141" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K141">
         <v>6.41</v>
       </c>
-      <c r="L141" vm="4">
-        <v>45720</v>
+      <c r="L141" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="142" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G142">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H142" t="str">
-        <v>ORD004</v>
+        <v>ORD033</v>
       </c>
       <c r="I142" t="str">
         <v>Regular</v>
       </c>
       <c r="J142" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K142">
         <v>6.41</v>
       </c>
-      <c r="L142" vm="1">
-        <v>45717</v>
+      <c r="L142" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="143" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G143">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H143" t="str">
-        <v>ORD005</v>
+        <v>ORD012</v>
       </c>
       <c r="I143" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J143" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K143">
         <v>145.46</v>
       </c>
-      <c r="L143" vm="3">
-        <v>45719</v>
+      <c r="L143" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="144" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G144">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H144" t="str">
-        <v>ORD014</v>
+        <v>ORD020</v>
       </c>
       <c r="I144" t="str">
         <v>Regular</v>
       </c>
       <c r="J144" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K144">
-        <v>145.46</v>
-      </c>
-      <c r="L144" vm="5">
-        <v>45721</v>
+        <v>6.41</v>
+      </c>
+      <c r="L144" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="145" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G145">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H145" t="str">
-        <v>ORD030</v>
+        <v>ORD004</v>
       </c>
       <c r="I145" t="str">
         <v>Regular</v>
       </c>
       <c r="J145" t="str">
-        <v>Electronics</v>
+        <v>Books</v>
       </c>
       <c r="K145">
         <v>6.41</v>
       </c>
-      <c r="L145" vm="4">
-        <v>45720</v>
+      <c r="L145" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="146" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G146">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H146" t="str">
-        <v>ORD027</v>
+        <v>ORD005</v>
       </c>
       <c r="I146" t="str">
         <v>Regular</v>
       </c>
       <c r="J146" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K146">
         <v>145.46</v>
       </c>
-      <c r="L146" vm="6">
-        <v>45722</v>
+      <c r="L146" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="147" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G147">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H147" t="str">
-        <v>ORD019</v>
+        <v>ORD014</v>
       </c>
       <c r="I147" t="str">
         <v>Regular</v>
       </c>
       <c r="J147" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K147">
         <v>145.46</v>
       </c>
-      <c r="L147" vm="2">
-        <v>45718</v>
+      <c r="L147" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="148" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G148">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H148" t="str">
-        <v>ORD029</v>
+        <v>ORD030</v>
       </c>
       <c r="I148" t="str">
         <v>Regular</v>
       </c>
       <c r="J148" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K148">
         <v>6.41</v>
@@ -4893,90 +4890,90 @@
     </row>
     <row r="149" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G149">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H149" t="str">
-        <v>ORD024</v>
+        <v>ORD027</v>
       </c>
       <c r="I149" t="str">
         <v>Regular</v>
       </c>
       <c r="J149" t="str">
-        <v>Books</v>
+        <v>Home</v>
       </c>
       <c r="K149">
         <v>145.46</v>
       </c>
-      <c r="L149" vm="3">
-        <v>45719</v>
+      <c r="L149" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="150" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G150">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H150" t="str">
-        <v>ORD032</v>
+        <v>ORD019</v>
       </c>
       <c r="I150" t="str">
         <v>Regular</v>
       </c>
       <c r="J150" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K150">
-        <v>608.66</v>
-      </c>
-      <c r="L150" vm="6">
-        <v>45722</v>
+        <v>145.46</v>
+      </c>
+      <c r="L150" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="151" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G151">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H151" t="str">
-        <v>ORD031</v>
+        <v>ORD029</v>
       </c>
       <c r="I151" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J151" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K151">
         <v>6.41</v>
       </c>
-      <c r="L151" vm="1">
-        <v>45717</v>
+      <c r="L151" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="152" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G152">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H152" t="str">
-        <v>ORD033</v>
+        <v>ORD024</v>
       </c>
       <c r="I152" t="str">
         <v>Regular</v>
       </c>
       <c r="J152" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K152">
-        <v>6.41</v>
-      </c>
-      <c r="L152" vm="5">
-        <v>45721</v>
+        <v>145.46</v>
+      </c>
+      <c r="L152" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="153" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G153">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H153" t="str">
-        <v>ORD037</v>
+        <v>ORD032</v>
       </c>
       <c r="I153" t="str">
         <v>Regular</v>
@@ -4987,59 +4984,59 @@
       <c r="K153">
         <v>608.66</v>
       </c>
-      <c r="L153" vm="4">
-        <v>45720</v>
+      <c r="L153" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="154" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G154">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H154" t="str">
-        <v>ORD042</v>
+        <v>ORD031</v>
       </c>
       <c r="I154" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J154" t="str">
-        <v>Home</v>
+        <v>Books</v>
       </c>
       <c r="K154">
         <v>6.41</v>
       </c>
-      <c r="L154" vm="5">
-        <v>45721</v>
+      <c r="L154" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="155" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G155">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H155" t="str">
-        <v>ORD034</v>
+        <v>ORD033</v>
       </c>
       <c r="I155" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J155" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K155">
-        <v>145.46</v>
-      </c>
-      <c r="L155" vm="7">
-        <v>45723</v>
+        <v>6.41</v>
+      </c>
+      <c r="L155" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="156" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G156">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H156" t="str">
-        <v>ORD002</v>
+        <v>ORD037</v>
       </c>
       <c r="I156" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J156" t="str">
         <v>Home</v>
@@ -5047,85 +5044,85 @@
       <c r="K156">
         <v>608.66</v>
       </c>
-      <c r="L156" vm="3">
-        <v>45719</v>
+      <c r="L156" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="157" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G157">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="H157" t="str">
-        <v>ORD010</v>
+        <v>ORD042</v>
       </c>
       <c r="I157" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J157" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K157">
-        <v>608.66</v>
-      </c>
-      <c r="L157" vm="2">
-        <v>45718</v>
+        <v>6.41</v>
+      </c>
+      <c r="L157" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="158" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G158">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="H158" t="str">
-        <v>ORD004</v>
+        <v>ORD034</v>
       </c>
       <c r="I158" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J158" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K158">
-        <v>6.41</v>
-      </c>
-      <c r="L158" vm="1">
-        <v>45717</v>
+        <v>145.46</v>
+      </c>
+      <c r="L158" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="159" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G159">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H159" t="str">
-        <v>ORD014</v>
+        <v>ORD002</v>
       </c>
       <c r="I159" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J159" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K159">
-        <v>145.46</v>
-      </c>
-      <c r="L159" vm="5">
-        <v>45721</v>
+        <v>608.66</v>
+      </c>
+      <c r="L159" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="160" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G160">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H160" t="str">
-        <v>ORD036</v>
+        <v>ORD010</v>
       </c>
       <c r="I160" t="str">
-        <v>New</v>
+        <v>VIP</v>
       </c>
       <c r="J160" t="str">
         <v>Clothing</v>
       </c>
       <c r="K160">
-        <v>6.41</v>
+        <v>608.66</v>
       </c>
       <c r="L160" vm="2">
         <v>45718</v>
@@ -5133,13 +5130,13 @@
     </row>
     <row r="161" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G161">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H161" t="str">
-        <v>ORD031</v>
+        <v>ORD004</v>
       </c>
       <c r="I161" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J161" t="str">
         <v>Books</v>
@@ -5153,156 +5150,156 @@
     </row>
     <row r="162" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G162">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H162" t="str">
-        <v>ORD002</v>
+        <v>ORD014</v>
       </c>
       <c r="I162" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J162" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K162">
-        <v>608.66</v>
-      </c>
-      <c r="L162" vm="3">
-        <v>45719</v>
+        <v>145.46</v>
+      </c>
+      <c r="L162" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="163" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G163">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H163" t="str">
-        <v>ORD032</v>
+        <v>ORD036</v>
       </c>
       <c r="I163" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J163" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K163">
-        <v>608.66</v>
-      </c>
-      <c r="L163" vm="6">
-        <v>45722</v>
+        <v>6.41</v>
+      </c>
+      <c r="L163" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="164" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G164">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H164" t="str">
-        <v>ORD032</v>
+        <v>ORD031</v>
       </c>
       <c r="I164" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J164" t="str">
-        <v>Home</v>
+        <v>Books</v>
       </c>
       <c r="K164">
-        <v>608.66</v>
-      </c>
-      <c r="L164" vm="6">
-        <v>45722</v>
+        <v>6.41</v>
+      </c>
+      <c r="L164" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="165" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G165">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H165" t="str">
-        <v>ORD017</v>
+        <v>ORD002</v>
       </c>
       <c r="I165" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J165" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K165">
-        <v>145.46</v>
-      </c>
-      <c r="L165" vm="1">
-        <v>45717</v>
+        <v>608.66</v>
+      </c>
+      <c r="L165" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="166" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G166">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H166" t="str">
-        <v>ORD019</v>
+        <v>ORD032</v>
       </c>
       <c r="I166" t="str">
         <v>Regular</v>
       </c>
       <c r="J166" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K166">
-        <v>145.46</v>
-      </c>
-      <c r="L166" vm="2">
-        <v>45718</v>
+        <v>608.66</v>
+      </c>
+      <c r="L166" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="167" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G167">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="H167" t="str">
-        <v>ORD016</v>
+        <v>ORD032</v>
       </c>
       <c r="I167" t="str">
         <v>Regular</v>
       </c>
       <c r="J167" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K167">
-        <v>145.46</v>
-      </c>
-      <c r="L167" vm="1">
-        <v>45717</v>
+        <v>608.66</v>
+      </c>
+      <c r="L167" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="168" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G168">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H168" t="str">
-        <v>ORD038</v>
+        <v>ORD017</v>
       </c>
       <c r="I168" t="str">
         <v>Regular</v>
       </c>
       <c r="J168" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K168">
-        <v>608.66</v>
-      </c>
-      <c r="L168" vm="5">
-        <v>45721</v>
+        <v>145.46</v>
+      </c>
+      <c r="L168" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="169" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G169">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H169" t="str">
-        <v>ORD045</v>
+        <v>ORD019</v>
       </c>
       <c r="I169" t="str">
         <v>Regular</v>
       </c>
       <c r="J169" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K169">
         <v>145.46</v>
@@ -5313,93 +5310,93 @@
     </row>
     <row r="170" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G170">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H170" t="str">
-        <v>ORD006</v>
+        <v>ORD016</v>
       </c>
       <c r="I170" t="str">
         <v>Regular</v>
       </c>
       <c r="J170" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K170">
-        <v>6.41</v>
-      </c>
-      <c r="L170" vm="2">
-        <v>45718</v>
+        <v>145.46</v>
+      </c>
+      <c r="L170" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="171" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G171">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H171" t="str">
-        <v>ORD050</v>
+        <v>ORD038</v>
       </c>
       <c r="I171" t="str">
         <v>Regular</v>
       </c>
       <c r="J171" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K171">
-        <v>6.41</v>
-      </c>
-      <c r="L171" vm="7">
-        <v>45723</v>
+        <v>608.66</v>
+      </c>
+      <c r="L171" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="172" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G172">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H172" t="str">
-        <v>ORD047</v>
+        <v>ORD045</v>
       </c>
       <c r="I172" t="str">
         <v>Regular</v>
       </c>
       <c r="J172" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K172">
-        <v>6.41</v>
-      </c>
-      <c r="L172" vm="3">
-        <v>45719</v>
+        <v>145.46</v>
+      </c>
+      <c r="L172" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="173" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G173">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H173" t="str">
-        <v>ORD037</v>
+        <v>ORD006</v>
       </c>
       <c r="I173" t="str">
         <v>Regular</v>
       </c>
       <c r="J173" t="str">
-        <v>Home</v>
+        <v>Books</v>
       </c>
       <c r="K173">
-        <v>608.66</v>
-      </c>
-      <c r="L173" vm="4">
-        <v>45720</v>
+        <v>6.41</v>
+      </c>
+      <c r="L173" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="174" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G174">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H174" t="str">
-        <v>ORD009</v>
+        <v>ORD050</v>
       </c>
       <c r="I174" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J174" t="str">
         <v>Electronics</v>
@@ -5407,116 +5404,116 @@
       <c r="K174">
         <v>6.41</v>
       </c>
-      <c r="L174" vm="5">
-        <v>45721</v>
+      <c r="L174" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="175" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G175">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H175" t="str">
-        <v>ORD004</v>
+        <v>ORD047</v>
       </c>
       <c r="I175" t="str">
         <v>Regular</v>
       </c>
       <c r="J175" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K175">
         <v>6.41</v>
       </c>
-      <c r="L175" vm="1">
-        <v>45717</v>
+      <c r="L175" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="176" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G176">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H176" t="str">
-        <v>ORD049</v>
+        <v>ORD037</v>
       </c>
       <c r="I176" t="str">
         <v>Regular</v>
       </c>
       <c r="J176" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K176">
-        <v>6.41</v>
-      </c>
-      <c r="L176" vm="5">
-        <v>45721</v>
+        <v>608.66</v>
+      </c>
+      <c r="L176" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="177" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G177">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H177" t="str">
-        <v>ORD031</v>
+        <v>ORD009</v>
       </c>
       <c r="I177" t="str">
         <v>VIP</v>
       </c>
       <c r="J177" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K177">
         <v>6.41</v>
       </c>
-      <c r="L177" vm="1">
-        <v>45717</v>
+      <c r="L177" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="178" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G178">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H178" t="str">
-        <v>ORD048</v>
+        <v>ORD004</v>
       </c>
       <c r="I178" t="str">
         <v>Regular</v>
       </c>
       <c r="J178" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K178">
-        <v>608.66</v>
-      </c>
-      <c r="L178" vm="4">
-        <v>45720</v>
+        <v>6.41</v>
+      </c>
+      <c r="L178" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="179" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G179">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H179" t="str">
-        <v>ORD024</v>
+        <v>ORD049</v>
       </c>
       <c r="I179" t="str">
         <v>Regular</v>
       </c>
       <c r="J179" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K179">
-        <v>145.46</v>
-      </c>
-      <c r="L179" vm="3">
-        <v>45719</v>
+        <v>6.41</v>
+      </c>
+      <c r="L179" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="180" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G180">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H180" t="str">
-        <v>ORD039</v>
+        <v>ORD031</v>
       </c>
       <c r="I180" t="str">
         <v>VIP</v>
@@ -5527,182 +5524,182 @@
       <c r="K180">
         <v>6.41</v>
       </c>
-      <c r="L180" vm="2">
-        <v>45718</v>
+      <c r="L180" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="181" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G181">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H181" t="str">
-        <v>ORD003</v>
+        <v>ORD048</v>
       </c>
       <c r="I181" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J181" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K181">
-        <v>6.41</v>
-      </c>
-      <c r="L181" vm="6">
-        <v>45722</v>
+        <v>608.66</v>
+      </c>
+      <c r="L181" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="182" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G182">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H182" t="str">
-        <v>ORD034</v>
+        <v>ORD024</v>
       </c>
       <c r="I182" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J182" t="str">
-        <v>Electronics</v>
+        <v>Books</v>
       </c>
       <c r="K182">
         <v>145.46</v>
       </c>
-      <c r="L182" vm="7">
-        <v>45723</v>
+      <c r="L182" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="183" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G183">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H183" t="str">
-        <v>ORD046</v>
+        <v>ORD039</v>
       </c>
       <c r="I183" t="str">
         <v>VIP</v>
       </c>
       <c r="J183" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K183">
         <v>6.41</v>
       </c>
-      <c r="L183" vm="4">
-        <v>45720</v>
+      <c r="L183" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="184" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G184">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H184" t="str">
-        <v>ORD038</v>
+        <v>ORD003</v>
       </c>
       <c r="I184" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J184" t="str">
-        <v>Home</v>
+        <v>Books</v>
       </c>
       <c r="K184">
-        <v>608.66</v>
-      </c>
-      <c r="L184" vm="5">
-        <v>45721</v>
+        <v>6.41</v>
+      </c>
+      <c r="L184" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="185" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G185">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H185" t="str">
-        <v>ORD032</v>
+        <v>ORD034</v>
       </c>
       <c r="I185" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J185" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K185">
-        <v>608.66</v>
-      </c>
-      <c r="L185" vm="6">
-        <v>45722</v>
+        <v>145.46</v>
+      </c>
+      <c r="L185" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="186" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G186">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H186" t="str">
-        <v>ORD023</v>
+        <v>ORD046</v>
       </c>
       <c r="I186" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J186" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K186">
         <v>6.41</v>
       </c>
-      <c r="L186" vm="2">
-        <v>45718</v>
+      <c r="L186" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="187" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G187">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H187" t="str">
-        <v>ORD039</v>
+        <v>ORD038</v>
       </c>
       <c r="I187" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J187" t="str">
-        <v>Books</v>
+        <v>Home</v>
       </c>
       <c r="K187">
-        <v>6.41</v>
-      </c>
-      <c r="L187" vm="2">
-        <v>45718</v>
+        <v>608.66</v>
+      </c>
+      <c r="L187" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="188" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G188">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="H188" t="str">
-        <v>ORD013</v>
+        <v>ORD032</v>
       </c>
       <c r="I188" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J188" t="str">
-        <v>Books</v>
+        <v>Home</v>
       </c>
       <c r="K188">
-        <v>145.46</v>
-      </c>
-      <c r="L188" vm="1">
-        <v>45717</v>
+        <v>608.66</v>
+      </c>
+      <c r="L188" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="189" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G189">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H189" t="str">
-        <v>ORD040</v>
+        <v>ORD023</v>
       </c>
       <c r="I189" t="str">
         <v>Regular</v>
       </c>
       <c r="J189" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K189">
         <v>6.41</v>
@@ -5713,22 +5710,22 @@
     </row>
     <row r="190" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G190">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H190" t="str">
-        <v>ORD027</v>
+        <v>ORD039</v>
       </c>
       <c r="I190" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J190" t="str">
-        <v>Home</v>
+        <v>Books</v>
       </c>
       <c r="K190">
-        <v>145.46</v>
-      </c>
-      <c r="L190" vm="6">
-        <v>45722</v>
+        <v>6.41</v>
+      </c>
+      <c r="L190" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="191" spans="7:12" x14ac:dyDescent="0.7">
@@ -5753,16 +5750,16 @@
     </row>
     <row r="192" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G192">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H192" t="str">
-        <v>ORD023</v>
+        <v>ORD040</v>
       </c>
       <c r="I192" t="str">
         <v>Regular</v>
       </c>
       <c r="J192" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K192">
         <v>6.41</v>
@@ -5773,116 +5770,116 @@
     </row>
     <row r="193" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G193">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H193" t="str">
-        <v>ORD016</v>
+        <v>ORD027</v>
       </c>
       <c r="I193" t="str">
         <v>Regular</v>
       </c>
       <c r="J193" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K193">
         <v>145.46</v>
       </c>
-      <c r="L193" vm="1">
-        <v>45717</v>
+      <c r="L193" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="194" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G194">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="H194" t="str">
-        <v>ORD035</v>
+        <v>ORD013</v>
       </c>
       <c r="I194" t="str">
         <v>New</v>
       </c>
       <c r="J194" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K194">
         <v>145.46</v>
       </c>
-      <c r="L194" vm="7">
-        <v>45723</v>
+      <c r="L194" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="195" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G195">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H195" t="str">
-        <v>ORD033</v>
+        <v>ORD023</v>
       </c>
       <c r="I195" t="str">
         <v>Regular</v>
       </c>
       <c r="J195" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K195">
         <v>6.41</v>
       </c>
-      <c r="L195" vm="5">
-        <v>45721</v>
+      <c r="L195" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="196" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G196">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="H196" t="str">
-        <v>ORD049</v>
+        <v>ORD016</v>
       </c>
       <c r="I196" t="str">
         <v>Regular</v>
       </c>
       <c r="J196" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K196">
-        <v>6.41</v>
-      </c>
-      <c r="L196" vm="5">
-        <v>45721</v>
+        <v>145.46</v>
+      </c>
+      <c r="L196" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="197" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G197">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H197" t="str">
-        <v>ORD046</v>
+        <v>ORD035</v>
       </c>
       <c r="I197" t="str">
-        <v>VIP</v>
+        <v>New</v>
       </c>
       <c r="J197" t="str">
         <v>Clothing</v>
       </c>
       <c r="K197">
-        <v>6.41</v>
-      </c>
-      <c r="L197" vm="4">
-        <v>45720</v>
+        <v>145.46</v>
+      </c>
+      <c r="L197" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="198" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G198">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H198" t="str">
-        <v>ORD042</v>
+        <v>ORD033</v>
       </c>
       <c r="I198" t="str">
         <v>Regular</v>
       </c>
       <c r="J198" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K198">
         <v>6.41</v>
@@ -5893,10 +5890,10 @@
     </row>
     <row r="199" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G199">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H199" t="str">
-        <v>ORD041</v>
+        <v>ORD049</v>
       </c>
       <c r="I199" t="str">
         <v>Regular</v>
@@ -5907,56 +5904,56 @@
       <c r="K199">
         <v>6.41</v>
       </c>
-      <c r="L199" vm="6">
-        <v>45722</v>
+      <c r="L199" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="200" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G200">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H200" t="str">
-        <v>ORD013</v>
+        <v>ORD046</v>
       </c>
       <c r="I200" t="str">
-        <v>New</v>
+        <v>VIP</v>
       </c>
       <c r="J200" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K200">
-        <v>145.46</v>
-      </c>
-      <c r="L200" vm="1">
-        <v>45717</v>
+        <v>6.41</v>
+      </c>
+      <c r="L200" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="201" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G201">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H201" t="str">
-        <v>ORD029</v>
+        <v>ORD042</v>
       </c>
       <c r="I201" t="str">
         <v>Regular</v>
       </c>
       <c r="J201" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K201">
         <v>6.41</v>
       </c>
-      <c r="L201" vm="4">
-        <v>45720</v>
+      <c r="L201" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="202" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G202">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H202" t="str">
-        <v>ORD050</v>
+        <v>ORD041</v>
       </c>
       <c r="I202" t="str">
         <v>Regular</v>
@@ -5967,19 +5964,19 @@
       <c r="K202">
         <v>6.41</v>
       </c>
-      <c r="L202" vm="7">
-        <v>45723</v>
+      <c r="L202" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="203" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G203">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H203" t="str">
-        <v>ORD024</v>
+        <v>ORD013</v>
       </c>
       <c r="I203" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J203" t="str">
         <v>Books</v>
@@ -5987,125 +5984,125 @@
       <c r="K203">
         <v>145.46</v>
       </c>
-      <c r="L203" vm="3">
-        <v>45719</v>
+      <c r="L203" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="204" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G204">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H204" t="str">
-        <v>ORD044</v>
+        <v>ORD029</v>
       </c>
       <c r="I204" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J204" t="str">
         <v>Clothing</v>
       </c>
       <c r="K204">
-        <v>145.46</v>
-      </c>
-      <c r="L204" vm="5">
-        <v>45721</v>
+        <v>6.41</v>
+      </c>
+      <c r="L204" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="205" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G205">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H205" t="str">
-        <v>ORD005</v>
+        <v>ORD050</v>
       </c>
       <c r="I205" t="str">
         <v>Regular</v>
       </c>
       <c r="J205" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K205">
-        <v>145.46</v>
-      </c>
-      <c r="L205" vm="3">
-        <v>45719</v>
+        <v>6.41</v>
+      </c>
+      <c r="L205" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="206" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G206">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H206" t="str">
-        <v>ORD045</v>
+        <v>ORD024</v>
       </c>
       <c r="I206" t="str">
         <v>Regular</v>
       </c>
       <c r="J206" t="str">
-        <v>Home</v>
+        <v>Books</v>
       </c>
       <c r="K206">
         <v>145.46</v>
       </c>
-      <c r="L206" vm="2">
-        <v>45718</v>
+      <c r="L206" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="207" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G207">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H207" t="str">
-        <v>ORD028</v>
+        <v>ORD044</v>
       </c>
       <c r="I207" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J207" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K207">
-        <v>6.41</v>
-      </c>
-      <c r="L207" vm="1">
-        <v>45717</v>
+        <v>145.46</v>
+      </c>
+      <c r="L207" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="208" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G208">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H208" t="str">
-        <v>ORD036</v>
+        <v>ORD005</v>
       </c>
       <c r="I208" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J208" t="str">
         <v>Clothing</v>
       </c>
       <c r="K208">
-        <v>6.41</v>
-      </c>
-      <c r="L208" vm="2">
-        <v>45718</v>
+        <v>145.46</v>
+      </c>
+      <c r="L208" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="209" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G209">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H209" t="str">
-        <v>ORD040</v>
+        <v>ORD045</v>
       </c>
       <c r="I209" t="str">
         <v>Regular</v>
       </c>
       <c r="J209" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K209">
-        <v>6.41</v>
+        <v>145.46</v>
       </c>
       <c r="L209" vm="2">
         <v>45718</v>
@@ -6113,56 +6110,56 @@
     </row>
     <row r="210" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G210">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H210" t="str">
-        <v>ORD039</v>
+        <v>ORD028</v>
       </c>
       <c r="I210" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J210" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K210">
         <v>6.41</v>
       </c>
-      <c r="L210" vm="2">
-        <v>45718</v>
+      <c r="L210" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="211" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G211">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H211" t="str">
-        <v>ORD050</v>
+        <v>ORD036</v>
       </c>
       <c r="I211" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J211" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K211">
         <v>6.41</v>
       </c>
-      <c r="L211" vm="7">
-        <v>45723</v>
+      <c r="L211" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="212" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G212">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H212" t="str">
-        <v>ORD021</v>
+        <v>ORD040</v>
       </c>
       <c r="I212" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J212" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K212">
         <v>6.41</v>
@@ -6173,16 +6170,16 @@
     </row>
     <row r="213" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G213">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H213" t="str">
-        <v>ORD023</v>
+        <v>ORD039</v>
       </c>
       <c r="I213" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J213" t="str">
-        <v>Electronics</v>
+        <v>Books</v>
       </c>
       <c r="K213">
         <v>6.41</v>
@@ -6193,36 +6190,36 @@
     </row>
     <row r="214" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G214">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H214" t="str">
-        <v>ORD024</v>
+        <v>ORD050</v>
       </c>
       <c r="I214" t="str">
         <v>Regular</v>
       </c>
       <c r="J214" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K214">
-        <v>145.46</v>
-      </c>
-      <c r="L214" vm="3">
-        <v>45719</v>
+        <v>6.41</v>
+      </c>
+      <c r="L214" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="215" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G215">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H215" t="str">
-        <v>ORD040</v>
+        <v>ORD021</v>
       </c>
       <c r="I215" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J215" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K215">
         <v>6.41</v>
@@ -6233,82 +6230,82 @@
     </row>
     <row r="216" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G216">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H216" t="str">
-        <v>ORD031</v>
+        <v>ORD023</v>
       </c>
       <c r="I216" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J216" t="str">
-        <v>Books</v>
+        <v>Electronics</v>
       </c>
       <c r="K216">
         <v>6.41</v>
       </c>
-      <c r="L216" vm="1">
-        <v>45717</v>
+      <c r="L216" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="217" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G217">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H217" t="str">
-        <v>ORD034</v>
+        <v>ORD024</v>
       </c>
       <c r="I217" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J217" t="str">
-        <v>Electronics</v>
+        <v>Books</v>
       </c>
       <c r="K217">
         <v>145.46</v>
       </c>
-      <c r="L217" vm="7">
-        <v>45723</v>
+      <c r="L217" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="218" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G218">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H218" t="str">
-        <v>ORD009</v>
+        <v>ORD040</v>
       </c>
       <c r="I218" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J218" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K218">
         <v>6.41</v>
       </c>
-      <c r="L218" vm="5">
-        <v>45721</v>
+      <c r="L218" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="219" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G219">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H219" t="str">
-        <v>ORD047</v>
+        <v>ORD031</v>
       </c>
       <c r="I219" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J219" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K219">
         <v>6.41</v>
       </c>
-      <c r="L219" vm="3">
-        <v>45719</v>
+      <c r="L219" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="220" spans="7:12" x14ac:dyDescent="0.7">
@@ -6333,170 +6330,170 @@
     </row>
     <row r="221" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G221">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H221" t="str">
-        <v>ORD047</v>
+        <v>ORD009</v>
       </c>
       <c r="I221" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J221" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K221">
         <v>6.41</v>
       </c>
-      <c r="L221" vm="3">
-        <v>45719</v>
+      <c r="L221" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="222" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G222">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H222" t="str">
-        <v>ORD018</v>
+        <v>ORD047</v>
       </c>
       <c r="I222" t="str">
         <v>Regular</v>
       </c>
       <c r="J222" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K222">
-        <v>145.46</v>
-      </c>
-      <c r="L222" vm="4">
-        <v>45720</v>
+        <v>6.41</v>
+      </c>
+      <c r="L222" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="223" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G223">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H223" t="str">
-        <v>ORD029</v>
+        <v>ORD034</v>
       </c>
       <c r="I223" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J223" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K223">
-        <v>6.41</v>
-      </c>
-      <c r="L223" vm="4">
-        <v>45720</v>
+        <v>145.46</v>
+      </c>
+      <c r="L223" vm="7">
+        <v>45723</v>
       </c>
     </row>
     <row r="224" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G224">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H224" t="str">
-        <v>ORD032</v>
+        <v>ORD047</v>
       </c>
       <c r="I224" t="str">
         <v>Regular</v>
       </c>
       <c r="J224" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K224">
-        <v>608.66</v>
-      </c>
-      <c r="L224" vm="6">
-        <v>45722</v>
+        <v>6.41</v>
+      </c>
+      <c r="L224" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="225" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G225">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H225" t="str">
-        <v>ORD044</v>
+        <v>ORD018</v>
       </c>
       <c r="I225" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J225" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K225">
         <v>145.46</v>
       </c>
-      <c r="L225" vm="5">
-        <v>45721</v>
+      <c r="L225" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="226" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G226">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H226" t="str">
-        <v>ORD049</v>
+        <v>ORD029</v>
       </c>
       <c r="I226" t="str">
         <v>Regular</v>
       </c>
       <c r="J226" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K226">
         <v>6.41</v>
       </c>
-      <c r="L226" vm="5">
-        <v>45721</v>
+      <c r="L226" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="227" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G227">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H227" t="str">
-        <v>ORD024</v>
+        <v>ORD032</v>
       </c>
       <c r="I227" t="str">
         <v>Regular</v>
       </c>
       <c r="J227" t="str">
-        <v>Books</v>
+        <v>Home</v>
       </c>
       <c r="K227">
-        <v>145.46</v>
-      </c>
-      <c r="L227" vm="3">
-        <v>45719</v>
+        <v>608.66</v>
+      </c>
+      <c r="L227" vm="6">
+        <v>45722</v>
       </c>
     </row>
     <row r="228" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G228">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H228" t="str">
-        <v>ORD020</v>
+        <v>ORD044</v>
       </c>
       <c r="I228" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J228" t="str">
-        <v>Books</v>
+        <v>Clothing</v>
       </c>
       <c r="K228">
-        <v>6.41</v>
-      </c>
-      <c r="L228" vm="4">
-        <v>45720</v>
+        <v>145.46</v>
+      </c>
+      <c r="L228" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="229" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G229">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H229" t="str">
-        <v>ORD017</v>
+        <v>ORD049</v>
       </c>
       <c r="I229" t="str">
         <v>Regular</v>
@@ -6505,101 +6502,101 @@
         <v>Electronics</v>
       </c>
       <c r="K229">
-        <v>145.46</v>
-      </c>
-      <c r="L229" vm="1">
-        <v>45717</v>
+        <v>6.41</v>
+      </c>
+      <c r="L229" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="230" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G230">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H230" t="str">
-        <v>ORD021</v>
+        <v>ORD024</v>
       </c>
       <c r="I230" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J230" t="str">
-        <v>Home</v>
+        <v>Books</v>
       </c>
       <c r="K230">
-        <v>6.41</v>
-      </c>
-      <c r="L230" vm="2">
-        <v>45718</v>
+        <v>145.46</v>
+      </c>
+      <c r="L230" vm="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="231" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G231">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H231" t="str">
-        <v>ORD036</v>
+        <v>ORD020</v>
       </c>
       <c r="I231" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J231" t="str">
-        <v>Clothing</v>
+        <v>Books</v>
       </c>
       <c r="K231">
         <v>6.41</v>
       </c>
-      <c r="L231" vm="2">
-        <v>45718</v>
+      <c r="L231" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="232" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G232">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H232" t="str">
-        <v>ORD038</v>
+        <v>ORD017</v>
       </c>
       <c r="I232" t="str">
         <v>Regular</v>
       </c>
       <c r="J232" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K232">
-        <v>608.66</v>
-      </c>
-      <c r="L232" vm="5">
-        <v>45721</v>
+        <v>145.46</v>
+      </c>
+      <c r="L232" vm="1">
+        <v>45717</v>
       </c>
     </row>
     <row r="233" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G233">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H233" t="str">
-        <v>ORD025</v>
+        <v>ORD021</v>
       </c>
       <c r="I233" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J233" t="str">
         <v>Home</v>
       </c>
       <c r="K233">
-        <v>145.46</v>
-      </c>
-      <c r="L233" vm="5">
-        <v>45721</v>
+        <v>6.41</v>
+      </c>
+      <c r="L233" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="234" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G234">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H234" t="str">
-        <v>ORD033</v>
+        <v>ORD036</v>
       </c>
       <c r="I234" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J234" t="str">
         <v>Clothing</v>
@@ -6607,42 +6604,42 @@
       <c r="K234">
         <v>6.41</v>
       </c>
-      <c r="L234" vm="5">
-        <v>45721</v>
+      <c r="L234" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="235" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G235">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H235" t="str">
-        <v>ORD030</v>
+        <v>ORD038</v>
       </c>
       <c r="I235" t="str">
         <v>Regular</v>
       </c>
       <c r="J235" t="str">
-        <v>Electronics</v>
+        <v>Home</v>
       </c>
       <c r="K235">
-        <v>6.41</v>
-      </c>
-      <c r="L235" vm="4">
-        <v>45720</v>
+        <v>608.66</v>
+      </c>
+      <c r="L235" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="236" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G236">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H236" t="str">
-        <v>ORD014</v>
+        <v>ORD025</v>
       </c>
       <c r="I236" t="str">
         <v>Regular</v>
       </c>
       <c r="J236" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K236">
         <v>145.46</v>
@@ -6653,13 +6650,13 @@
     </row>
     <row r="237" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G237">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H237" t="str">
-        <v>ORD046</v>
+        <v>ORD033</v>
       </c>
       <c r="I237" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J237" t="str">
         <v>Clothing</v>
@@ -6667,85 +6664,85 @@
       <c r="K237">
         <v>6.41</v>
       </c>
-      <c r="L237" vm="4">
-        <v>45720</v>
+      <c r="L237" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="238" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G238">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H238" t="str">
-        <v>ORD045</v>
+        <v>ORD030</v>
       </c>
       <c r="I238" t="str">
         <v>Regular</v>
       </c>
       <c r="J238" t="str">
-        <v>Home</v>
+        <v>Electronics</v>
       </c>
       <c r="K238">
-        <v>145.46</v>
-      </c>
-      <c r="L238" vm="2">
-        <v>45718</v>
+        <v>6.41</v>
+      </c>
+      <c r="L238" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="239" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G239">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H239" t="str">
-        <v>ORD045</v>
+        <v>ORD014</v>
       </c>
       <c r="I239" t="str">
         <v>Regular</v>
       </c>
       <c r="J239" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K239">
         <v>145.46</v>
       </c>
-      <c r="L239" vm="2">
-        <v>45718</v>
+      <c r="L239" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="240" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G240">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H240" t="str">
-        <v>ORD009</v>
+        <v>ORD046</v>
       </c>
       <c r="I240" t="str">
         <v>VIP</v>
       </c>
       <c r="J240" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K240">
         <v>6.41</v>
       </c>
-      <c r="L240" vm="5">
-        <v>45721</v>
+      <c r="L240" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="241" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G241">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H241" t="str">
-        <v>ORD039</v>
+        <v>ORD045</v>
       </c>
       <c r="I241" t="str">
-        <v>VIP</v>
+        <v>Regular</v>
       </c>
       <c r="J241" t="str">
-        <v>Books</v>
+        <v>Home</v>
       </c>
       <c r="K241">
-        <v>6.41</v>
+        <v>145.46</v>
       </c>
       <c r="L241" vm="2">
         <v>45718</v>
@@ -6753,79 +6750,79 @@
     </row>
     <row r="242" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G242">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H242" t="str">
-        <v>ORD011</v>
+        <v>ORD045</v>
       </c>
       <c r="I242" t="str">
         <v>Regular</v>
       </c>
       <c r="J242" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K242">
         <v>145.46</v>
       </c>
-      <c r="L242" vm="7">
-        <v>45723</v>
+      <c r="L242" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="243" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G243">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H243" t="str">
-        <v>ORD029</v>
+        <v>ORD009</v>
       </c>
       <c r="I243" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J243" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K243">
         <v>6.41</v>
       </c>
-      <c r="L243" vm="4">
-        <v>45720</v>
+      <c r="L243" vm="5">
+        <v>45721</v>
       </c>
     </row>
     <row r="244" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G244">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H244" t="str">
-        <v>ORD030</v>
+        <v>ORD039</v>
       </c>
       <c r="I244" t="str">
-        <v>Regular</v>
+        <v>VIP</v>
       </c>
       <c r="J244" t="str">
-        <v>Electronics</v>
+        <v>Books</v>
       </c>
       <c r="K244">
         <v>6.41</v>
       </c>
-      <c r="L244" vm="4">
-        <v>45720</v>
+      <c r="L244" vm="2">
+        <v>45718</v>
       </c>
     </row>
     <row r="245" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G245">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H245" t="str">
-        <v>ORD050</v>
+        <v>ORD011</v>
       </c>
       <c r="I245" t="str">
         <v>Regular</v>
       </c>
       <c r="J245" t="str">
-        <v>Electronics</v>
+        <v>Clothing</v>
       </c>
       <c r="K245">
-        <v>6.41</v>
+        <v>145.46</v>
       </c>
       <c r="L245" vm="7">
         <v>45723</v>
@@ -6833,39 +6830,39 @@
     </row>
     <row r="246" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G246">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H246" t="str">
-        <v>ORD002</v>
+        <v>ORD029</v>
       </c>
       <c r="I246" t="str">
-        <v>New</v>
+        <v>Regular</v>
       </c>
       <c r="J246" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K246">
-        <v>608.66</v>
-      </c>
-      <c r="L246" vm="3">
-        <v>45719</v>
+        <v>6.41</v>
+      </c>
+      <c r="L246" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="247" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G247">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H247" t="str">
-        <v>ORD048</v>
+        <v>ORD030</v>
       </c>
       <c r="I247" t="str">
         <v>Regular</v>
       </c>
       <c r="J247" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K247">
-        <v>608.66</v>
+        <v>6.41</v>
       </c>
       <c r="L247" vm="4">
         <v>45720</v>
@@ -6893,19 +6890,19 @@
     </row>
     <row r="249" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G249">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H249" t="str">
-        <v>ORD047</v>
+        <v>ORD002</v>
       </c>
       <c r="I249" t="str">
-        <v>Regular</v>
+        <v>New</v>
       </c>
       <c r="J249" t="str">
-        <v>Clothing</v>
+        <v>Home</v>
       </c>
       <c r="K249">
-        <v>6.41</v>
+        <v>608.66</v>
       </c>
       <c r="L249" vm="3">
         <v>45719</v>
@@ -6913,39 +6910,39 @@
     </row>
     <row r="250" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G250">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H250" t="str">
-        <v>ORD032</v>
+        <v>ORD048</v>
       </c>
       <c r="I250" t="str">
         <v>Regular</v>
       </c>
       <c r="J250" t="str">
-        <v>Home</v>
+        <v>Clothing</v>
       </c>
       <c r="K250">
         <v>608.66</v>
       </c>
-      <c r="L250" vm="6">
-        <v>45722</v>
+      <c r="L250" vm="4">
+        <v>45720</v>
       </c>
     </row>
     <row r="251" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G251">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H251" t="str">
-        <v>ORD011</v>
+        <v>ORD050</v>
       </c>
       <c r="I251" t="str">
         <v>Regular</v>
       </c>
       <c r="J251" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="K251">
-        <v>145.46</v>
+        <v>6.41</v>
       </c>
       <c r="L251" vm="7">
         <v>45723</v>
@@ -6953,21 +6950,81 @@
     </row>
     <row r="252" spans="7:12" x14ac:dyDescent="0.7">
       <c r="G252">
+        <v>19</v>
+      </c>
+      <c r="H252" t="str">
+        <v>ORD047</v>
+      </c>
+      <c r="I252" t="str">
+        <v>Regular</v>
+      </c>
+      <c r="J252" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="K252">
+        <v>6.41</v>
+      </c>
+      <c r="L252" vm="3">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="253" spans="7:12" x14ac:dyDescent="0.7">
+      <c r="G253">
+        <v>41</v>
+      </c>
+      <c r="H253" t="str">
+        <v>ORD032</v>
+      </c>
+      <c r="I253" t="str">
+        <v>Regular</v>
+      </c>
+      <c r="J253" t="str">
+        <v>Home</v>
+      </c>
+      <c r="K253">
+        <v>608.66</v>
+      </c>
+      <c r="L253" vm="6">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="254" spans="7:12" x14ac:dyDescent="0.7">
+      <c r="G254">
+        <v>47</v>
+      </c>
+      <c r="H254" t="str">
+        <v>ORD011</v>
+      </c>
+      <c r="I254" t="str">
+        <v>Regular</v>
+      </c>
+      <c r="J254" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="K254">
+        <v>145.46</v>
+      </c>
+      <c r="L254" vm="7">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="255" spans="7:12" x14ac:dyDescent="0.7">
+      <c r="G255">
         <v>36</v>
       </c>
-      <c r="H252" t="str">
+      <c r="H255" t="str">
         <v>ORD049</v>
       </c>
-      <c r="I252" t="str">
-        <v>Regular</v>
-      </c>
-      <c r="J252" t="str">
+      <c r="I255" t="str">
+        <v>Regular</v>
+      </c>
+      <c r="J255" t="str">
         <v>Electronics</v>
       </c>
-      <c r="K252">
-        <v>6.41</v>
-      </c>
-      <c r="L252" vm="5">
+      <c r="K255">
+        <v>6.41</v>
+      </c>
+      <c r="L255" vm="5">
         <v>45721</v>
       </c>
     </row>
